--- a/price.xlsx
+++ b/price.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6002425-EF59-1A44-9390-1E6FABA2CA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D78A4E-3712-604B-BE4E-3A5C6A801622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17440" yWindow="0" windowWidth="16160" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16840" yWindow="500" windowWidth="16580" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1568,6 +1568,9 @@
       <c r="B24">
         <v>3300</v>
       </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1576,6 +1579,9 @@
       <c r="B25">
         <v>4000</v>
       </c>
+      <c r="C25">
+        <v>600</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1584,6 +1590,9 @@
       <c r="B26">
         <v>1800</v>
       </c>
+      <c r="C26">
+        <v>400</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1592,6 +1601,9 @@
       <c r="B27">
         <v>3100</v>
       </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1600,6 +1612,9 @@
       <c r="B28">
         <v>3600</v>
       </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1608,6 +1623,9 @@
       <c r="B29">
         <v>3850</v>
       </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1616,6 +1634,9 @@
       <c r="B30">
         <v>4000</v>
       </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1624,6 +1645,9 @@
       <c r="B31">
         <v>4900</v>
       </c>
+      <c r="C31">
+        <v>600</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1632,264 +1656,363 @@
       <c r="B32">
         <v>4000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33">
         <v>2500</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34">
         <v>3900</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
       <c r="B35">
         <v>4000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>92</v>
       </c>
       <c r="B36">
         <v>3900</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
       <c r="B37">
         <v>4250</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
       <c r="B38">
         <v>3000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
       <c r="B39">
         <v>3000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>33</v>
       </c>
       <c r="B40">
         <v>3000</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
       <c r="B41">
         <v>4600</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42">
         <v>5200</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="B43">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44">
         <v>2100</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
       <c r="B45">
         <v>2000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
       <c r="B46">
         <v>2500</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
       <c r="B47">
         <v>2550</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>41</v>
       </c>
       <c r="B48">
         <v>2800</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
       <c r="B49">
         <v>3400</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>43</v>
       </c>
       <c r="B50">
         <v>4400</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
       <c r="B51">
         <v>4400</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>96</v>
       </c>
       <c r="B52">
         <v>2400</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
       <c r="B53">
         <v>1800</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>94</v>
       </c>
       <c r="B54">
         <v>3850</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
       <c r="B56">
         <v>2300</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>45</v>
       </c>
       <c r="B57">
         <v>2000</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>46</v>
       </c>
       <c r="B58">
         <v>2200</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
       <c r="B59">
         <v>2250</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
       <c r="B60">
         <v>3550</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
       <c r="B61">
         <v>4400</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
       <c r="B62">
         <v>3850</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
       <c r="B63">
         <v>4200</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>
       <c r="B64">
         <v>4200</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>97</v>
       </c>
       <c r="B65">
         <v>2300</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -1897,7 +2020,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -1905,7 +2028,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -1913,7 +2036,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -1921,7 +2044,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>57</v>
       </c>
@@ -1929,7 +2052,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -1937,7 +2060,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -1945,7 +2068,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -1953,7 +2076,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -1961,17 +2084,17 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>64</v>
       </c>
